--- a/data/trans_bre/P23_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-1,77</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-48,07%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>-44,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-25,47%</t>
+          <t>-18,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-25,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-47,49%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 2,31</t>
+          <t>-7,4; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,74</t>
+          <t>-5,91; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,79</t>
+          <t>-2,87; 7,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,2</t>
+          <t>-6,07; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,41; 142,77</t>
+          <t>-8,69; 4,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-69,71; 138,8</t>
+          <t>-11,69; 1,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 742,28</t>
+          <t>-92,34; 90,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-80,85; 205,88</t>
+          <t>-71,01; 143,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-57,62; 533,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-79,38; 479,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-79,58; 137,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-85,4; 50,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>331,68%</t>
+          <t>102,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-64,61%</t>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>346,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-49,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-64,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-56,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,29</t>
+          <t>-1,31; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 3,64</t>
+          <t>-11,46; 3,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,67</t>
+          <t>0,65; 7,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -0,48</t>
+          <t>-25,99; 1,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 779,08</t>
+          <t>-12,98; 0,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-92,65; 487,0</t>
+          <t>-14,31; 0,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,14; —</t>
+          <t>-53,43; 848,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 11,96</t>
+          <t>-100,0; 532,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,44; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,32; 39,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-91,68; 30,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-82,6; 20,69</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-23,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-44,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41,35%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-48,54%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,04</t>
+          <t>-4,16; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,5</t>
+          <t>-1,78; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 2,11</t>
+          <t>-4,78; 1,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,34</t>
+          <t>-11,08; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 141,17</t>
+          <t>-2,08; 8,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 355,6</t>
+          <t>-13,45; -0,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,84; 80,39</t>
+          <t>-52,74; 101,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 167,12</t>
+          <t>-54,51; 269,96</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-68,82; 62,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-79,06; 24,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; 173,92</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-73,87; -6,84</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,03</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,57%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>145,1%</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>150,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-49,55%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,14</t>
+          <t>-7,04; 4,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,81</t>
+          <t>1,28; 8,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,75</t>
+          <t>-2,74; 6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 7,1</t>
+          <t>-0,39; 8,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,2; 134,48</t>
+          <t>-5,37; 7,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 422,65</t>
+          <t>-13,53; -1,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 133,84</t>
+          <t>-57,66; 133,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 94,14</t>
+          <t>20,43; 440,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 169,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 229,4</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,36; 95,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-72,48; -14,1</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,69%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>38,44%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,74</t>
+          <t>-3,1; 7,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,91</t>
+          <t>-4,59; 6,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,01</t>
+          <t>-1,38; 7,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 9,14</t>
+          <t>-1,79; 11,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 174,51</t>
+          <t>-5,55; 9,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 219,68</t>
+          <t>-6,13; 10,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 209,1</t>
+          <t>-35,02; 181,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 98,45</t>
+          <t>-59,41; 197,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 224,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-21,6; 187,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-32,84; 96,14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 79,6</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>137,18%</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>158,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>217,29%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37,15%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 12,22</t>
+          <t>1,69; 14,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 4,38</t>
+          <t>-6,08; 4,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,62</t>
+          <t>-3,75; 6,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 11,22</t>
+          <t>4,8; 20,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 574,03</t>
+          <t>-6,7; 11,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,77; 91,4</t>
+          <t>-4,65; 11,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 119,7</t>
+          <t>10,0; 656,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 138,44</t>
+          <t>-53,86; 87,58</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-38,46; 136,54</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34,06; 729,87</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-45,62; 159,02</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-33,0; 177,73</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40,58%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-23,62%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,61</t>
+          <t>-0,26; 3,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,21</t>
+          <t>-1,01; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,51</t>
+          <t>0,11; 3,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,72</t>
+          <t>-1,21; 4,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 91,78</t>
+          <t>-2,11; 3,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 92,13</t>
+          <t>-5,87; -0,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 85,31</t>
+          <t>-5,5; 89,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 45,98</t>
+          <t>-17,95; 81,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 100,45</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 84,45</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; 41,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-39,88; -0,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
